--- a/500all/speech_level/speeches_CHRG-114hhrg94094.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94094.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Heck. Go ahead and call the Military Personnel Subcommittee of the House Armed Services Committee meeting to order. I want to welcome everyone to the first hearing of the Military Personnel Subcommittee on the 15 recommendations to modernize the military compensation and retirement system suggested by the Military Compensation and Retirement Modernization Commission.    We appreciate the Commission's diligent and comprehensive review of the military pay and benefits system, and believe their thoughtful recommendations deserve our attention and careful study. We want to ensure everyone that the Military Personnel Subcommittee will take every opportunity to thoroughly review and discuss them in the coming months.    We are fully committed to improving the welfare and quality of life for both current members of our armed services and our veterans, while ensuring we keep our Nation safe and secure. Our purpose today following last week's full committee hearing is to begin the subcommittee's effort to understand the assumption, rationale, and details behind the Commission's recommendations.    A key consideration for our work is to continue viability of the All-Volunteer Force, which has been well sustained by our current compensation system since its inception. Most importantly, we must not break faith with our service members and undermine our efforts to recruit and retain the best and brightest in our Armed Forces.    Before I introduce our panel, let me offer Congresswoman Davis an opportunity to make her opening remarks.    [The prepared statement of Dr. Heck can be found in the Appendix on page 35.]</t>
   </si>
   <si>
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    I also want to welcome back the commissioners. You have all been very, very busy and we appreciate the dedication of your time and effort.    I believe this hearing at the subcommittee level provides our committee members the opportunity to have a better dialogue with all of you, with the commissioners, to better understand the assumptions and the details behind the recommendations.    As we continue this dialogue over the next several months, we will have a hard look at 15 recommendations. And we are interested in being sure that any action that the Congress takes will preserve the All-Volunteer Force as an underlying principle. And we know you understand that as well.    Some of the recommendations may take longer to fully understand before we can act. And we know it would have been very difficult actually to have sustained our All-Volunteer Force over the past 13 years of war without the current compensation system that we have today.    But we are entering a new reality. Fiscal pressures with the new generation of citizens entering the military, and it is time to look at this and to look at it responsibly.    The commissioners and their staffs have certainly, as I said, put in serious effort into this. And we, Mr. Chairman, as I know you believe, must do the same. Thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Maldon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Maldon. Thank you, Chairman Heck, Ranking Member Davis, distinguished members of the subcommittee. My fellow commissioners and I are honored to be here with you today. We thank you for the opportunity to testify.    As a Commission we stand unanimous, Mr. Chairman, in our belief that our recommendations strengthen the foundation of the All-Volunteer Force. It secures our national security and honors those who serve and the families who support them now and into the future.    Our recommendations maintain or increase the overall value of the compensation and benefits for service members and their families, and provide needed flexibility for service personnel managers to design and manage a balanced force.    Our blended retirement plans expands benefits from 17 percent to 75 percent of service members, while maintaining the service's current force profiles. It provides flexibility for service members and its services while protecting and improving the assets of service members who retire at 20 years of service.    These findings are based on reasonable and conservative estimates, including TSP [Thrift Savings Plan] investment returns of 7.3 percent, and retired pay costs of living adjustments of 2.3 percent.    To maintain current force profiles, TSP contributions were not recommended beyond 20 years of service. However, the consideration of matching contribution that continues beyond 20 years of service may be an area the committee wishes to explore.    Our recommendations promote essential high-level focus on readiness through a new Joint Readiness Command that can serve as a strong advocate for readiness funding and maintenance skill standards.    They expand choice, access, quality and value of health care by offering family members, Reserve Component members, and retirees a broad choice of insurance plans that are more flexible and efficient than the current TRICARE system. They maintain savings on groceries and other essential goods while improving the cost-effectiveness of DOD's [Department of Defense] commissary and exchanges.    Our recommendations also save more than $12 billion annually after full implementation without cutting the overall benefit of service members. Our recommendations align compensation to the preferences of service members, which were partially measured through the more than 155,000 survey responses we received.    Our survey methodology, which was new to the military community, captured preferences for the alternative benefit level. Its analytical tools then enabled for the first time direct comparison between the value of that service member's place on varying compensation and benefits packages.    The survey validates the many comments we received from service members and their families at the 55 installations that we visited. Our recommendations incorporate substantial consideration of potential second- and third-order effect, which are reflected in our implementation timelines.    Advancing these implementation timelines due to budget constraints may lead to an unanticipated cost, implementation challenges, or even failed modernization efforts. An example may be accelerating the multiyear backend operational efficiency of our commissary and exchange recommendations.    In closing, my fellow commissioners and I again thank you for the opportunity to testify before you today. And we stand ready for your questions, Mr. Chairman.    [The joint prepared statement of the commissioners can be found in the Appendix on page 36.]</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t xml:space="preserve">    Mr. Buyer. Well, one of the systemic issues is one that you have to deal with every time.    So what does the building do? Basically you have a structure of TRICARE that has a limited provider network. It is very cumbersome with regard to its scheduling. And that is the access getting into the system. Not only to primary care, but then also then to specialty care.    You went through all the debacle with the VA [Department of Veterans Affairs], right. And what upset a lot of people, yes, that there were delays in getting those appointments. The greatest insult was the integrity issue, right, at the VA.    We have that very same issue in DOD with regard to access to care and the delays of getting my primary care appointment and to specialty care appointments.    Mrs. Davis. Yes, and----</t>
   </si>
   <si>
-    <t>Giambastiani</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buyer. I would say that is----    General Chiarelli. I would add contracting. I would add contracting to that.    The whole contracting issue on these TRICARE contracts are 5 years in duration. And then you add another 3 while you go through the protest period. So we end up 8 years behind. They are very hard to modify.    So when new medical breakthroughs take place they are not just automatically integrated into TRICARE. You got to wait until the next contracting cycle to get them in. So you are receiving medical care that is 8 years in arrears.    We sent people to the National Intrepid Center of Excellence for traumatic brain injury and post-traumatic stress. They got a care plan put together and then they go to their post camp station. Some of it has to be done on the TRICARE network, and TRICARE refuses to pay for it.    Admiral Giambastiani. I would also say----</t>
   </si>
   <si>
@@ -145,9 +133,6 @@
     <t xml:space="preserve">    Mr. Maldon. Ranking Member Davis, currently under the current system of TRICARE people go outside--they go outside now to get that care when they can't get it within the MTFs.</t>
   </si>
   <si>
-    <t>Carney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carney. And Congresswoman, this is kind of about readiness also. And not just readiness for the Active Force, but also the Reserve Force.    As a reservist who did not have good access to a TRICARE plan--it wasn't called TRICARE for us. It was called ``try to find care.'' And that affects readiness. If you are not medically ready, definitely ready, you are not going to be ready to fight the Nation's wars. So this access is also about readiness.</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>412643</t>
   </si>
   <si>
-    <t>Thomas MacArthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Chairman.    I had, if I remember right, had read that the total savings from your TRICARE recommendations were about $6 billion. And I just want to understand what of that is the result of structural changes and what of that is the result of increased cost sharing with our military personnel?</t>
   </si>
   <si>
@@ -181,9 +163,6 @@
     <t xml:space="preserve">    Mr. Maldon. I am going to ask Commissioner Higgins to talk specifically to that in that area, please.</t>
   </si>
   <si>
-    <t>Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    The accrual funding deals with trust funds. And we have a trust fund in retirement. And Department of Defense pays into that trust fund every year the cost of future retirements for people in the force.    We would propose that for health care that the non-Medicare eligible retiree be included in a trust fund. So we would begin at that point to pay for the non-Medicare eligible retiree health care out into the future.    And the DOD Actuary worked very, very closely with us on this. And the conclusion was that that normal cost percentage is what it is called, that contribution from discretionary dollars into the trust fund would be $4 billion savings that we would accrue to the Department of Defense in budget.</t>
   </si>
   <si>
@@ -214,9 +193,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman.    Again, thank you, commissioners, for your hard work. And just like you, our major concern here is whatever we do must not negatively impact national security. We must maintain the integrity and the readiness of the All-Volunteer Force. And we must keep faith with those warriors who are there.    I understand, and the argument to be made is, is that you will negatively impact national security if you don't address these things. Because yesterday many of us were up with General Dempsey who made the case that it is impacting our ability to do that.    And he made a pledge to us. He said the savings we get out of paying compensation will be put back into readiness. And he is making a very solid argument on that.    I said the thing I keep--and again it is for us more than you, encourage you on this is what I heard him say is that as a senior enlisted guy I am going to go out and say okay, you are going to pay some co-pays on this. There are going to be some changes to health care. We are going to 1 percent instead of 1.5 percent on this. But you are going to get an extra rotation at NTC [National Training Center]. So it is all good.    That is a very difficult sell to them. Maybe not to the senior folks about what is going to be there, but that is what we are up against. And actually, not facetiously, that readiness piece is absolutely critical.    And as a troop I understand when readiness suffers the Nation's security suffers as well as the wellbeing of your troops. They don't want to sit around. And they certainly don't want to be asked to go to war without having everything they get.    So I get it on this. I would say this issue and the TRICARE one, there are some difficult challenges here. And one is, again, to remove it from it, there is a 900-pound gorilla in here of a large number of these people who are suspicious of moving off a program that they know. Again, the devil you know is better than the one you don't know, especially when they have been told that private market includes the ACA [Affordable Care Act], which they are told might not work or whatever it might be.    So it is very difficult. I can tell you this. On my last appointment I had TRICARE Prime Remote that works beautifully. It is also very expensive. Am I correct, Mr. Buyer, in how that works?    So we can't provide that for everyone. But what we are up against is, is my wife until this day claims the military's health care when you were deployed was the best insurance we ever had. It was all taken care of. TriWest handled it all and all was good to go.    So I come back to you and ask. And last week the question I had was--I am not sure which of you said this, but it struck me, said that you need to take this package and not start ripping it apart because you will have second- and third-degree effects.    It may be true, but that makes it virtually impossible to get it through here. And that is what I am struggling with.    Because you are saying--because what I would say is I think the housing allowance on the GI Bill is a lightning rod that is going to come back to haunt us in that it makes us appear like we are breaking faith and then it makes this whole case harder.    Because I understand. And I am--in full disclosure I am a life member of many of these VSOs [veteran service organizations]. My question to you is we can't break it apart. How much inclusion from the MSOs [military service organizations] and VSOs happen in what you did? Or did you try and isolate yourself from the case of undue influence?</t>
   </si>
   <si>
@@ -241,9 +217,6 @@
     <t>412513</t>
   </si>
   <si>
-    <t>Paul Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    I have been listening to this. And I got to be honest with you, I am a little bit confused. And Sergeant Major, you made some great points.    Twenty, thirty years ago I think I used to understand this. And now I feel like I am in the middle of a calculus problem.    You know I am retired, General. I used to--when I was younger the big thing for recruitment, and a lot of us have recruited here, was the fact that the government would take care of you if you served 20 years or even longer.    And things have changed. Now my primary health care is Medicare. My secondary is TRICARE. And when I hear all these conversations it is like--and I try to listen to some of the veterans that I have there.    They are--it is tough enough dealing with the veterans issues that come down and dealing with the VA. And we are making some of these issues very, very complex.    At least I am not as smart as you guys. I am just a dumb Marine up here that is trying to get through. And my primary concern is to take care of the troops, the ones that have gone through this.    God, can't we make it any simpler or what have you? It just seems that we have thrown out the KISS [keep it simple, stupid] principle.    And for these veterans, for people that are on Active Duty TRICARE and the changes to it. Every time we change it--and I was there some of the meetings with TriWest and how we are going to do it.    I appreciate that you are trying to do something. But we have got to have a standardized message and make it as simple as possible. I don't understand the tables and so many doctors doing this and that.    All I know is that many years ago I thought we were going to have medical care to take care of those people who stayed in long enough to retire. And that situation to me is constantly changing because of budgetary pressures. And I get it.    But if we can simplify it because the people that are watching when I go and try to explain this to them, I can explain you know tanks and airplanes and everything else. What you deal it is as I said, this is another calculus problem, or a calculus course, which I didn't do first well the first time when I was--as an undergraduate.    So I don't know if I have a question. I just am--I did--I was concerned about where those individuals that are on Medicare and TRICARE. It seems like no one even wants to even address TRICARE when they hear I have Medicare. And they don't default to that because it is too complicated. Is that a correct statement or not in terms of the medical world out there right now that I deal with?</t>
   </si>
   <si>
@@ -271,9 +244,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And thank you all for being here. I very much appreciated your presence before the full Armed Services Committee.    I thought it was one of the better if not best hearings we have ever had. And I think your conversation today is very reflective of just the ways in which you have really worked very hard around some very complex issues. And the deep understanding you bring to it.    Both the politics have changed, which are always so difficult, especially as we deal with our military who so ably and nobly served our country, and for whom we all feel a deep obligation to do the right thing. And I know your task was not a simple one.    I would like, as I turn away from the changes to health care and focus on one of your recommendations that I think actually highlights a real plus. And that was your efforts and your recommendations about reforming the military pension system.    So as you stated in your report, more than four out of five service members currently leave the military before reaching 20 years of service, and thus they leave the force without any retirement pay.    I think this is particularly true and egregious of our Nation's ground combat troops who have been repeatedly deployed over the past decade. And today fewer than 15 percent of U.S. soldiers and Marines will serve a full 20 years, meaning that most will separate from the military without any retirement savings.    So I would like just to give you the opportunity to sort of highlight the changes you are recommending that can make a real difference so that those who do so ably serve but don't commit or serve for 20 years, when they walk away they walk away with something that makes a real difference as they move into civilian life.    And also if you could just talk about the tradeoffs you were thinking through. I mean I think this is a real plus that needs to be highlighted, especially for those who might think they are losing in other areas. And how the balance was struck. Were you thinking that way?    And I don't know who wants to take the lead.</t>
   </si>
   <si>
@@ -307,9 +277,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    It is my understanding that the new retirement system is all defined contribution. Am I correct in that? The proposal?</t>
   </si>
   <si>
@@ -427,9 +394,6 @@
     <t>412259</t>
   </si>
   <si>
-    <t>Jackie Speier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Speier. Mr. Chairman, thank you.    And again to each of you, I think you have heard it over and over again, but your contributions have been profound. And I would agree with my colleague Ms. Tsongas that it is probably the best hearing that we have ever had. We just now have got to inject a little guts into all of us to do the right thing.    Let me start off by addressing--as we heard earlier this morning about how we save money within Defense, the biggest way to save money, the most effective way is through military personnel. And they have suggested about $6 billion would be saved through health care and about $2 billion through retirement; I believe is what they said.    And as I look at the health care component here, if in fact what we are saying is that it is going to go up 1 percent per year. Is that--am I understanding that correct, 1 percent per year? And right now it is about $535 a year. Is that right?</t>
   </si>
   <si>
@@ -559,9 +523,6 @@
     <t xml:space="preserve">    Dr. Heck. Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chair.    I would like to continue this line of questioning, the comments made by Ms. Speier about the political guts necessary to pass and implement the work that you have brought before us.    Talk a little bit about the survey and the surveying that you did. And I know that you published the questionnaire and the results online. I thank you for your transparency.    Talk about how those survey results factored into your recommendations, and whether or not there has been any survey since the whole of this has been presented. And if so, what the feedback is on that. I think that might inform some of the work that we have to do in order to ultimately pass something like this.</t>
   </si>
   <si>
@@ -590,9 +551,6 @@
   </si>
   <si>
     <t>412614</t>
-  </si>
-  <si>
-    <t>Stephen Knight</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chairman. I would like to thank the committee for their work too. I have just a couple questions. And I think we are hitting down on it, that of the survey.    The survey was presented to service members today. And they were asked if there was another situation would you like it better. And you probably gave them some parameters. And then you went back and gave them another survey after the parameters were set. Is that correct, of the new program?    Because I am looking at this survey right here that says 80 percent of Active service members would prefer the current or proposed compensation system. And it says 80 percent would prefer the preferred proposed system. That is a tongue twister in itself.    Was the survey before this presented the same way and said that if we gave you this option to have this type of a system, as opposed to your current system? So it was apples to apples. That is what I guess I am asking.</t>
@@ -1192,11 +1150,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1216,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1244,11 +1198,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1268,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1296,11 +1246,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1320,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1348,11 +1294,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1372,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1400,11 +1342,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1424,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1452,11 +1390,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1478,11 +1414,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1504,11 +1438,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1530,11 +1462,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1556,11 +1486,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1580,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1606,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1632,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1658,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1684,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1710,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1736,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1762,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1788,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1814,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1840,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1866,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1894,11 +1798,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1918,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1944,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1970,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1996,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2022,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2048,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2074,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2100,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2126,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2152,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2178,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2204,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2230,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>55</v>
-      </c>
-      <c r="H42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2256,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2284,11 +2158,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2308,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2334,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2360,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2386,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2412,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2438,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2466,11 +2326,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2490,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2516,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2542,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2568,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2594,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2620,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2646,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2674,11 +2518,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2698,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2724,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2750,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2776,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2802,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2828,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
-      </c>
-      <c r="G65" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2854,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2880,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2906,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2934,11 +2758,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2958,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2984,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3010,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3036,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3062,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3088,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3114,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3140,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3166,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3192,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3218,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
         <v>97</v>
-      </c>
-      <c r="H80" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3244,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3270,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3296,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3322,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3348,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3374,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3400,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3426,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3452,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3478,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3504,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
-      </c>
-      <c r="G91" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3530,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3556,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>96</v>
-      </c>
-      <c r="G93" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3582,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3608,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>96</v>
-      </c>
-      <c r="G95" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3634,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3660,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>96</v>
-      </c>
-      <c r="G97" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3686,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3712,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>96</v>
-      </c>
-      <c r="G99" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3738,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3764,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>96</v>
-      </c>
-      <c r="G101" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3790,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3816,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>96</v>
-      </c>
-      <c r="G103" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3842,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3868,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>96</v>
-      </c>
-      <c r="G105" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3894,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3920,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>96</v>
-      </c>
-      <c r="G107" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3946,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3972,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>96</v>
-      </c>
-      <c r="G109" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4000,11 +3742,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4024,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
-      </c>
-      <c r="G111" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4050,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4076,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4102,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>136</v>
-      </c>
-      <c r="G114" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4128,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4154,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>136</v>
-      </c>
-      <c r="G116" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4180,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4206,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
-      </c>
-      <c r="G118" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4232,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4258,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>136</v>
-      </c>
-      <c r="G120" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4284,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4310,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>136</v>
-      </c>
-      <c r="G122" t="s">
+        <v>125</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
         <v>137</v>
-      </c>
-      <c r="H122" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4336,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4362,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4388,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4414,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>136</v>
-      </c>
-      <c r="G126" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4440,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4466,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>136</v>
-      </c>
-      <c r="G128" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4492,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4518,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>136</v>
-      </c>
-      <c r="G130" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4544,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4570,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>136</v>
-      </c>
-      <c r="G132" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4596,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4622,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>136</v>
-      </c>
-      <c r="G134" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4648,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4674,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>136</v>
-      </c>
-      <c r="G136" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4700,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>136</v>
-      </c>
-      <c r="G137" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4726,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4752,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>136</v>
-      </c>
-      <c r="G139" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4778,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4804,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>136</v>
-      </c>
-      <c r="G141" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4830,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4856,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>136</v>
-      </c>
-      <c r="G143" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4882,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4908,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>136</v>
-      </c>
-      <c r="G145" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4934,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4960,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4986,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>136</v>
-      </c>
-      <c r="G148" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5012,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5038,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5064,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>136</v>
-      </c>
-      <c r="G151" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5090,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5116,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5142,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>136</v>
-      </c>
-      <c r="G154" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5168,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5194,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5220,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>136</v>
-      </c>
-      <c r="G157" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5246,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5272,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5298,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>136</v>
-      </c>
-      <c r="G160" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5326,11 +4966,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5350,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5376,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5402,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5428,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5454,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5480,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5506,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5532,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5560,11 +5182,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5584,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>191</v>
-      </c>
-      <c r="G171" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5610,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5636,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>191</v>
-      </c>
-      <c r="G173" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5662,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5688,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>191</v>
-      </c>
-      <c r="G175" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5714,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5740,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>191</v>
-      </c>
-      <c r="G177" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5766,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5792,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>191</v>
-      </c>
-      <c r="G179" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5820,11 +5422,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5844,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5870,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5898,11 +5494,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5922,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5948,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5976,11 +5566,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6000,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6028,11 +5614,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6052,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6080,11 +5662,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6104,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6132,11 +5710,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6156,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6184,11 +5758,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6208,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6234,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6260,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6286,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6312,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6338,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6364,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6390,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6416,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6442,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6468,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>43</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6494,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6520,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6548,11 +6094,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6572,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>191</v>
-      </c>
-      <c r="G209" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6598,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6624,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>55</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6650,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6676,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>191</v>
-      </c>
-      <c r="G213" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6702,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6728,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6754,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>191</v>
-      </c>
-      <c r="G216" t="s">
-        <v>192</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6782,11 +6310,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6806,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>65</v>
-      </c>
-      <c r="G218" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6832,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>65</v>
-      </c>
-      <c r="G219" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6860,11 +6382,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6884,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>136</v>
-      </c>
-      <c r="G221" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6910,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6936,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>136</v>
-      </c>
-      <c r="G223" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6962,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6988,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>136</v>
-      </c>
-      <c r="G225" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7014,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7040,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>136</v>
-      </c>
-      <c r="G227" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7066,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7092,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>136</v>
-      </c>
-      <c r="G229" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7118,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7144,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7170,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>136</v>
-      </c>
-      <c r="G232" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7196,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7222,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>136</v>
-      </c>
-      <c r="G234" t="s">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7248,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7274,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7302,11 +6790,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7326,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7354,11 +6838,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7378,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7406,11 +6886,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7432,11 +6910,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7456,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7484,11 +6958,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94094.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94094.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Heck. Go ahead and call the Military Personnel Subcommittee of the House Armed Services Committee meeting to order. I want to welcome everyone to the first hearing of the Military Personnel Subcommittee on the 15 recommendations to modernize the military compensation and retirement system suggested by the Military Compensation and Retirement Modernization Commission.    We appreciate the Commission's diligent and comprehensive review of the military pay and benefits system, and believe their thoughtful recommendations deserve our attention and careful study. We want to ensure everyone that the Military Personnel Subcommittee will take every opportunity to thoroughly review and discuss them in the coming months.    We are fully committed to improving the welfare and quality of life for both current members of our armed services and our veterans, while ensuring we keep our Nation safe and secure. Our purpose today following last week's full committee hearing is to begin the subcommittee's effort to understand the assumption, rationale, and details behind the Commission's recommendations.    A key consideration for our work is to continue viability of the All-Volunteer Force, which has been well sustained by our current compensation system since its inception. Most importantly, we must not break faith with our service members and undermine our efforts to recruit and retain the best and brightest in our Armed Forces.    Before I introduce our panel, let me offer Congresswoman Davis an opportunity to make her opening remarks.    [The prepared statement of Dr. Heck can be found in the Appendix on page 35.]</t>
   </si>
   <si>
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    I also want to welcome back the commissioners. You have all been very, very busy and we appreciate the dedication of your time and effort.    I believe this hearing at the subcommittee level provides our committee members the opportunity to have a better dialogue with all of you, with the commissioners, to better understand the assumptions and the details behind the recommendations.    As we continue this dialogue over the next several months, we will have a hard look at 15 recommendations. And we are interested in being sure that any action that the Congress takes will preserve the All-Volunteer Force as an underlying principle. And we know you understand that as well.    Some of the recommendations may take longer to fully understand before we can act. And we know it would have been very difficult actually to have sustained our All-Volunteer Force over the past 13 years of war without the current compensation system that we have today.    But we are entering a new reality. Fiscal pressures with the new generation of citizens entering the military, and it is time to look at this and to look at it responsibly.    The commissioners and their staffs have certainly, as I said, put in serious effort into this. And we, Mr. Chairman, as I know you believe, must do the same. Thank you.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Maldon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Maldon. Thank you, Chairman Heck, Ranking Member Davis, distinguished members of the subcommittee. My fellow commissioners and I are honored to be here with you today. We thank you for the opportunity to testify.    As a Commission we stand unanimous, Mr. Chairman, in our belief that our recommendations strengthen the foundation of the All-Volunteer Force. It secures our national security and honors those who serve and the families who support them now and into the future.    Our recommendations maintain or increase the overall value of the compensation and benefits for service members and their families, and provide needed flexibility for service personnel managers to design and manage a balanced force.    Our blended retirement plans expands benefits from 17 percent to 75 percent of service members, while maintaining the service's current force profiles. It provides flexibility for service members and its services while protecting and improving the assets of service members who retire at 20 years of service.    These findings are based on reasonable and conservative estimates, including TSP [Thrift Savings Plan] investment returns of 7.3 percent, and retired pay costs of living adjustments of 2.3 percent.    To maintain current force profiles, TSP contributions were not recommended beyond 20 years of service. However, the consideration of matching contribution that continues beyond 20 years of service may be an area the committee wishes to explore.    Our recommendations promote essential high-level focus on readiness through a new Joint Readiness Command that can serve as a strong advocate for readiness funding and maintenance skill standards.    They expand choice, access, quality and value of health care by offering family members, Reserve Component members, and retirees a broad choice of insurance plans that are more flexible and efficient than the current TRICARE system. They maintain savings on groceries and other essential goods while improving the cost-effectiveness of DOD's [Department of Defense] commissary and exchanges.    Our recommendations also save more than $12 billion annually after full implementation without cutting the overall benefit of service members. Our recommendations align compensation to the preferences of service members, which were partially measured through the more than 155,000 survey responses we received.    Our survey methodology, which was new to the military community, captured preferences for the alternative benefit level. Its analytical tools then enabled for the first time direct comparison between the value of that service member's place on varying compensation and benefits packages.    The survey validates the many comments we received from service members and their families at the 55 installations that we visited. Our recommendations incorporate substantial consideration of potential second- and third-order effect, which are reflected in our implementation timelines.    Advancing these implementation timelines due to budget constraints may lead to an unanticipated cost, implementation challenges, or even failed modernization efforts. An example may be accelerating the multiyear backend operational efficiency of our commissary and exchange recommendations.    In closing, my fellow commissioners and I again thank you for the opportunity to testify before you today. And we stand ready for your questions, Mr. Chairman.    [The joint prepared statement of the commissioners can be found in the Appendix on page 36.]</t>
   </si>
   <si>
@@ -109,6 +127,9 @@
     <t xml:space="preserve">    Mr. Buyer. Well, one of the systemic issues is one that you have to deal with every time.    So what does the building do? Basically you have a structure of TRICARE that has a limited provider network. It is very cumbersome with regard to its scheduling. And that is the access getting into the system. Not only to primary care, but then also then to specialty care.    You went through all the debacle with the VA [Department of Veterans Affairs], right. And what upset a lot of people, yes, that there were delays in getting those appointments. The greatest insult was the integrity issue, right, at the VA.    We have that very same issue in DOD with regard to access to care and the delays of getting my primary care appointment and to specialty care appointments.    Mrs. Davis. Yes, and----</t>
   </si>
   <si>
+    <t>Giambastiani</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Buyer. I would say that is----    General Chiarelli. I would add contracting. I would add contracting to that.    The whole contracting issue on these TRICARE contracts are 5 years in duration. And then you add another 3 while you go through the protest period. So we end up 8 years behind. They are very hard to modify.    So when new medical breakthroughs take place they are not just automatically integrated into TRICARE. You got to wait until the next contracting cycle to get them in. So you are receiving medical care that is 8 years in arrears.    We sent people to the National Intrepid Center of Excellence for traumatic brain injury and post-traumatic stress. They got a care plan put together and then they go to their post camp station. Some of it has to be done on the TRICARE network, and TRICARE refuses to pay for it.    Admiral Giambastiani. I would also say----</t>
   </si>
   <si>
@@ -133,6 +154,9 @@
     <t xml:space="preserve">    Mr. Maldon. Ranking Member Davis, currently under the current system of TRICARE people go outside--they go outside now to get that care when they can't get it within the MTFs.</t>
   </si>
   <si>
+    <t>Carney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carney. And Congresswoman, this is kind of about readiness also. And not just readiness for the Active Force, but also the Reserve Force.    As a reservist who did not have good access to a TRICARE plan--it wasn't called TRICARE for us. It was called ``try to find care.'' And that affects readiness. If you are not medically ready, definitely ready, you are not going to be ready to fight the Nation's wars. So this access is also about readiness.</t>
   </si>
   <si>
@@ -145,6 +169,12 @@
     <t>412643</t>
   </si>
   <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Chairman.    I had, if I remember right, had read that the total savings from your TRICARE recommendations were about $6 billion. And I just want to understand what of that is the result of structural changes and what of that is the result of increased cost sharing with our military personnel?</t>
   </si>
   <si>
@@ -163,6 +193,9 @@
     <t xml:space="preserve">    Mr. Maldon. I am going to ask Commissioner Higgins to talk specifically to that in that area, please.</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    The accrual funding deals with trust funds. And we have a trust fund in retirement. And Department of Defense pays into that trust fund every year the cost of future retirements for people in the force.    We would propose that for health care that the non-Medicare eligible retiree be included in a trust fund. So we would begin at that point to pay for the non-Medicare eligible retiree health care out into the future.    And the DOD Actuary worked very, very closely with us on this. And the conclusion was that that normal cost percentage is what it is called, that contribution from discretionary dollars into the trust fund would be $4 billion savings that we would accrue to the Department of Defense in budget.</t>
   </si>
   <si>
@@ -193,6 +226,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman.    Again, thank you, commissioners, for your hard work. And just like you, our major concern here is whatever we do must not negatively impact national security. We must maintain the integrity and the readiness of the All-Volunteer Force. And we must keep faith with those warriors who are there.    I understand, and the argument to be made is, is that you will negatively impact national security if you don't address these things. Because yesterday many of us were up with General Dempsey who made the case that it is impacting our ability to do that.    And he made a pledge to us. He said the savings we get out of paying compensation will be put back into readiness. And he is making a very solid argument on that.    I said the thing I keep--and again it is for us more than you, encourage you on this is what I heard him say is that as a senior enlisted guy I am going to go out and say okay, you are going to pay some co-pays on this. There are going to be some changes to health care. We are going to 1 percent instead of 1.5 percent on this. But you are going to get an extra rotation at NTC [National Training Center]. So it is all good.    That is a very difficult sell to them. Maybe not to the senior folks about what is going to be there, but that is what we are up against. And actually, not facetiously, that readiness piece is absolutely critical.    And as a troop I understand when readiness suffers the Nation's security suffers as well as the wellbeing of your troops. They don't want to sit around. And they certainly don't want to be asked to go to war without having everything they get.    So I get it on this. I would say this issue and the TRICARE one, there are some difficult challenges here. And one is, again, to remove it from it, there is a 900-pound gorilla in here of a large number of these people who are suspicious of moving off a program that they know. Again, the devil you know is better than the one you don't know, especially when they have been told that private market includes the ACA [Affordable Care Act], which they are told might not work or whatever it might be.    So it is very difficult. I can tell you this. On my last appointment I had TRICARE Prime Remote that works beautifully. It is also very expensive. Am I correct, Mr. Buyer, in how that works?    So we can't provide that for everyone. But what we are up against is, is my wife until this day claims the military's health care when you were deployed was the best insurance we ever had. It was all taken care of. TriWest handled it all and all was good to go.    So I come back to you and ask. And last week the question I had was--I am not sure which of you said this, but it struck me, said that you need to take this package and not start ripping it apart because you will have second- and third-degree effects.    It may be true, but that makes it virtually impossible to get it through here. And that is what I am struggling with.    Because you are saying--because what I would say is I think the housing allowance on the GI Bill is a lightning rod that is going to come back to haunt us in that it makes us appear like we are breaking faith and then it makes this whole case harder.    Because I understand. And I am--in full disclosure I am a life member of many of these VSOs [veteran service organizations]. My question to you is we can't break it apart. How much inclusion from the MSOs [military service organizations] and VSOs happen in what you did? Or did you try and isolate yourself from the case of undue influence?</t>
   </si>
   <si>
@@ -217,6 +256,12 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    I have been listening to this. And I got to be honest with you, I am a little bit confused. And Sergeant Major, you made some great points.    Twenty, thirty years ago I think I used to understand this. And now I feel like I am in the middle of a calculus problem.    You know I am retired, General. I used to--when I was younger the big thing for recruitment, and a lot of us have recruited here, was the fact that the government would take care of you if you served 20 years or even longer.    And things have changed. Now my primary health care is Medicare. My secondary is TRICARE. And when I hear all these conversations it is like--and I try to listen to some of the veterans that I have there.    They are--it is tough enough dealing with the veterans issues that come down and dealing with the VA. And we are making some of these issues very, very complex.    At least I am not as smart as you guys. I am just a dumb Marine up here that is trying to get through. And my primary concern is to take care of the troops, the ones that have gone through this.    God, can't we make it any simpler or what have you? It just seems that we have thrown out the KISS [keep it simple, stupid] principle.    And for these veterans, for people that are on Active Duty TRICARE and the changes to it. Every time we change it--and I was there some of the meetings with TriWest and how we are going to do it.    I appreciate that you are trying to do something. But we have got to have a standardized message and make it as simple as possible. I don't understand the tables and so many doctors doing this and that.    All I know is that many years ago I thought we were going to have medical care to take care of those people who stayed in long enough to retire. And that situation to me is constantly changing because of budgetary pressures. And I get it.    But if we can simplify it because the people that are watching when I go and try to explain this to them, I can explain you know tanks and airplanes and everything else. What you deal it is as I said, this is another calculus problem, or a calculus course, which I didn't do first well the first time when I was--as an undergraduate.    So I don't know if I have a question. I just am--I did--I was concerned about where those individuals that are on Medicare and TRICARE. It seems like no one even wants to even address TRICARE when they hear I have Medicare. And they don't default to that because it is too complicated. Is that a correct statement or not in terms of the medical world out there right now that I deal with?</t>
   </si>
   <si>
@@ -244,6 +289,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And thank you all for being here. I very much appreciated your presence before the full Armed Services Committee.    I thought it was one of the better if not best hearings we have ever had. And I think your conversation today is very reflective of just the ways in which you have really worked very hard around some very complex issues. And the deep understanding you bring to it.    Both the politics have changed, which are always so difficult, especially as we deal with our military who so ably and nobly served our country, and for whom we all feel a deep obligation to do the right thing. And I know your task was not a simple one.    I would like, as I turn away from the changes to health care and focus on one of your recommendations that I think actually highlights a real plus. And that was your efforts and your recommendations about reforming the military pension system.    So as you stated in your report, more than four out of five service members currently leave the military before reaching 20 years of service, and thus they leave the force without any retirement pay.    I think this is particularly true and egregious of our Nation's ground combat troops who have been repeatedly deployed over the past decade. And today fewer than 15 percent of U.S. soldiers and Marines will serve a full 20 years, meaning that most will separate from the military without any retirement savings.    So I would like just to give you the opportunity to sort of highlight the changes you are recommending that can make a real difference so that those who do so ably serve but don't commit or serve for 20 years, when they walk away they walk away with something that makes a real difference as they move into civilian life.    And also if you could just talk about the tradeoffs you were thinking through. I mean I think this is a real plus that needs to be highlighted, especially for those who might think they are losing in other areas. And how the balance was struck. Were you thinking that way?    And I don't know who wants to take the lead.</t>
   </si>
   <si>
@@ -277,6 +328,12 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    It is my understanding that the new retirement system is all defined contribution. Am I correct in that? The proposal?</t>
   </si>
   <si>
@@ -394,6 +451,12 @@
     <t>412259</t>
   </si>
   <si>
+    <t>Speier</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Speier. Mr. Chairman, thank you.    And again to each of you, I think you have heard it over and over again, but your contributions have been profound. And I would agree with my colleague Ms. Tsongas that it is probably the best hearing that we have ever had. We just now have got to inject a little guts into all of us to do the right thing.    Let me start off by addressing--as we heard earlier this morning about how we save money within Defense, the biggest way to save money, the most effective way is through military personnel. And they have suggested about $6 billion would be saved through health care and about $2 billion through retirement; I believe is what they said.    And as I look at the health care component here, if in fact what we are saying is that it is going to go up 1 percent per year. Is that--am I understanding that correct, 1 percent per year? And right now it is about $535 a year. Is that right?</t>
   </si>
   <si>
@@ -523,6 +586,9 @@
     <t xml:space="preserve">    Dr. Heck. Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chair.    I would like to continue this line of questioning, the comments made by Ms. Speier about the political guts necessary to pass and implement the work that you have brought before us.    Talk a little bit about the survey and the surveying that you did. And I know that you published the questionnaire and the results online. I thank you for your transparency.    Talk about how those survey results factored into your recommendations, and whether or not there has been any survey since the whole of this has been presented. And if so, what the feedback is on that. I think that might inform some of the work that we have to do in order to ultimately pass something like this.</t>
   </si>
   <si>
@@ -551,6 +617,12 @@
   </si>
   <si>
     <t>412614</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chairman. I would like to thank the committee for their work too. I have just a couple questions. And I think we are hitting down on it, that of the survey.    The survey was presented to service members today. And they were asked if there was another situation would you like it better. And you probably gave them some parameters. And then you went back and gave them another survey after the parameters were set. Is that correct, of the new program?    Because I am looking at this survey right here that says 80 percent of Active service members would prefer the current or proposed compensation system. And it says 80 percent would prefer the preferred proposed system. That is a tongue twister in itself.    Was the survey before this presented the same way and said that if we gave you this option to have this type of a system, as opposed to your current system? So it was apples to apples. That is what I guess I am asking.</t>
@@ -1100,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,7 +1180,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,5837 +1202,6817 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
       <c r="H39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>51</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
+        <v>51</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>80</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G70" t="s">
+        <v>104</v>
+      </c>
       <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
       <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G74" t="s">
+        <v>104</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>59</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>59</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>86</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>104</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G87" t="s">
+        <v>104</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G89" t="s">
+        <v>104</v>
+      </c>
       <c r="H89" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>59</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>86</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G91" t="s">
+        <v>104</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>59</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G93" t="s">
+        <v>104</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>59</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G95" t="s">
+        <v>104</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>59</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>86</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G97" t="s">
+        <v>104</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>59</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G101" t="s">
+        <v>104</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>59</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>86</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G103" t="s">
+        <v>104</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>59</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G105" t="s">
+        <v>104</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>59</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G107" t="s">
+        <v>104</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G109" t="s">
+        <v>104</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>125</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G111" t="s">
+        <v>145</v>
+      </c>
       <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>125</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G113" t="s">
+        <v>145</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G114" t="s">
+        <v>145</v>
+      </c>
       <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G116" t="s">
+        <v>145</v>
+      </c>
       <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>59</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G118" t="s">
+        <v>145</v>
+      </c>
       <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>59</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G120" t="s">
+        <v>145</v>
+      </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>59</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>125</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G122" t="s">
+        <v>145</v>
+      </c>
       <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>59</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>59</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>125</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G126" t="s">
+        <v>145</v>
+      </c>
       <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>59</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>125</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G128" t="s">
+        <v>145</v>
+      </c>
       <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>59</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>125</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G130" t="s">
+        <v>145</v>
+      </c>
       <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>59</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>125</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G132" t="s">
+        <v>145</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>59</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>125</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G134" t="s">
+        <v>145</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>59</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>125</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G136" t="s">
+        <v>145</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>125</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G137" t="s">
+        <v>145</v>
+      </c>
       <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>59</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>125</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G139" t="s">
+        <v>145</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>59</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>125</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G141" t="s">
+        <v>145</v>
+      </c>
       <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>59</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>125</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G143" t="s">
+        <v>145</v>
+      </c>
       <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>59</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>125</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G145" t="s">
+        <v>145</v>
+      </c>
       <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>59</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>59</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>125</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G148" t="s">
+        <v>145</v>
+      </c>
       <c r="H148" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>59</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>125</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G151" t="s">
+        <v>145</v>
+      </c>
       <c r="H151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>59</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>125</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G154" t="s">
+        <v>145</v>
+      </c>
       <c r="H154" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>59</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>125</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G157" t="s">
+        <v>145</v>
+      </c>
       <c r="H157" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>59</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>125</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G160" t="s">
+        <v>145</v>
+      </c>
       <c r="H160" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>190</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>22</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>190</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>190</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>190</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>190</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
       <c r="H170" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>178</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G171" t="s">
+        <v>201</v>
+      </c>
       <c r="H171" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>22</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>178</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G173" t="s">
+        <v>201</v>
+      </c>
       <c r="H173" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>178</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G175" t="s">
+        <v>201</v>
+      </c>
       <c r="H175" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>178</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G177" t="s">
+        <v>201</v>
+      </c>
       <c r="H177" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>37</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>178</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G179" t="s">
+        <v>201</v>
+      </c>
       <c r="H179" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I179" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>22</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>59</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>59</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>46</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>46</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>46</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>59</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>59</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
       <c r="H195" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I195" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>22</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>17</v>
+      </c>
       <c r="H197" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>59</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s">
+        <v>17</v>
+      </c>
       <c r="H199" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G200" t="s">
+        <v>59</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s">
+        <v>17</v>
+      </c>
       <c r="H201" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I201" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>59</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>37</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>37</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>46</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>22</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s">
+        <v>17</v>
+      </c>
       <c r="H207" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I207" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
       <c r="H208" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>178</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G209" t="s">
+        <v>201</v>
+      </c>
       <c r="H209" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I209" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>22</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G211" t="s">
+        <v>59</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G212" t="s">
+        <v>37</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>178</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G213" t="s">
+        <v>201</v>
+      </c>
       <c r="H213" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I213" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G214" t="s">
+        <v>37</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>16</v>
-      </c>
-      <c r="G215" t="s"/>
-      <c r="H215" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G215" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" t="s"/>
+      <c r="I215" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>178</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G216" t="s">
+        <v>201</v>
+      </c>
       <c r="H216" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I216" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>58</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G218" t="s">
+        <v>70</v>
+      </c>
       <c r="H218" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I218" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>58</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G219" t="s">
+        <v>70</v>
+      </c>
       <c r="H219" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I219" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
       <c r="H220" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>125</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G221" t="s">
+        <v>145</v>
+      </c>
       <c r="H221" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I221" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>16</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G222" t="s">
+        <v>22</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>125</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G223" t="s">
+        <v>145</v>
+      </c>
       <c r="H223" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I223" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>16</v>
-      </c>
-      <c r="G224" t="s"/>
-      <c r="H224" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G224" t="s">
+        <v>22</v>
+      </c>
+      <c r="H224" t="s"/>
+      <c r="I224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>125</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G225" t="s">
+        <v>145</v>
+      </c>
       <c r="H225" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I225" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>16</v>
-      </c>
-      <c r="G226" t="s"/>
-      <c r="H226" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G226" t="s">
+        <v>37</v>
+      </c>
+      <c r="H226" t="s"/>
+      <c r="I226" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>125</v>
-      </c>
-      <c r="G227" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G227" t="s">
+        <v>145</v>
+      </c>
       <c r="H227" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I227" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>16</v>
-      </c>
-      <c r="G228" t="s"/>
-      <c r="H228" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G228" t="s">
+        <v>37</v>
+      </c>
+      <c r="H228" t="s"/>
+      <c r="I228" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>125</v>
-      </c>
-      <c r="G229" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G229" t="s">
+        <v>145</v>
+      </c>
       <c r="H229" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I229" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>16</v>
-      </c>
-      <c r="G230" t="s"/>
-      <c r="H230" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>37</v>
+      </c>
+      <c r="H230" t="s"/>
+      <c r="I230" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>16</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G231" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>125</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G232" t="s">
+        <v>145</v>
+      </c>
       <c r="H232" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I232" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>16</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G233" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>125</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G234" t="s">
+        <v>145</v>
+      </c>
       <c r="H234" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I234" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>16</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>22</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>16</v>
-      </c>
-      <c r="G236" t="s"/>
-      <c r="H236" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G236" t="s">
+        <v>37</v>
+      </c>
+      <c r="H236" t="s"/>
+      <c r="I236" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
       <c r="H237" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>13</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G238" t="s">
+        <v>17</v>
+      </c>
       <c r="H238" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I238" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
-      </c>
-      <c r="G239" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G239" t="s">
+        <v>13</v>
+      </c>
       <c r="H239" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
-        <v>16</v>
-      </c>
-      <c r="G240" t="s"/>
-      <c r="H240" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G240" t="s">
+        <v>37</v>
+      </c>
+      <c r="H240" t="s"/>
+      <c r="I240" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
-      </c>
-      <c r="G241" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
       <c r="H241" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
-        <v>11</v>
-      </c>
-      <c r="G242" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G242" t="s">
+        <v>13</v>
+      </c>
       <c r="H242" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I242" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>16</v>
-      </c>
-      <c r="G243" t="s"/>
-      <c r="H243" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G243" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" t="s"/>
+      <c r="I243" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
-      </c>
-      <c r="G244" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G244" t="s">
+        <v>13</v>
+      </c>
       <c r="H244" t="s">
-        <v>245</v>
+        <v>14</v>
+      </c>
+      <c r="I244" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
